--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -207,10 +207,10 @@
     <t>131,132,133,134,135,136,</t>
   </si>
   <si>
-    <t>1621296000</t>
-  </si>
-  <si>
-    <t>1621871999</t>
+    <t>1621900800</t>
+  </si>
+  <si>
+    <t>1622476799</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -222,11 +222,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,71 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -327,9 +264,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,16 +299,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,8 +336,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,16 +375,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,25 +418,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,43 +556,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,109 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,11 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +666,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,6 +688,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,181 +724,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -911,14 +897,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,15 +1505,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="6" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <t>131,132,133,134,135,136,</t>
   </si>
   <si>
-    <t>1621900800</t>
-  </si>
-  <si>
-    <t>1622476799</t>
+    <t>1622505600</t>
+  </si>
+  <si>
+    <t>1623081599</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -249,44 +249,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,9 +284,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,16 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +329,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -361,14 +360,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -376,10 +375,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,13 +396,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -418,19 +418,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,19 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,133 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,22 +631,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +663,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -695,30 +719,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -727,14 +727,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,19 +743,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,117 +764,117 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H10" sqref="H10:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>no</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>131,132,133,134,135,136,</t>
-  </si>
-  <si>
-    <t>1622505600</t>
-  </si>
-  <si>
-    <t>1623081599</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -221,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -249,6 +243,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -256,10 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,14 +294,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,56 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,109 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,66 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,36 +621,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -694,24 +677,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,14 +721,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,138 +737,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -884,7 +878,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1505,7 +1499,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I13"/>
+      <selection activeCell="H9" sqref="H9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1682,11 +1676,11 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
+      <c r="H9" s="5">
+        <v>1623110400</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
@@ -1707,11 +1701,11 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
+      <c r="H10" s="5">
+        <v>1623110400</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1732,11 +1726,11 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>59</v>
+      <c r="H11" s="5">
+        <v>1623110400</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1757,11 +1751,11 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>59</v>
+      <c r="H12" s="5">
+        <v>1623110400</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1769,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
         <v>2400</v>
@@ -1782,11 +1776,11 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>59</v>
+      <c r="H13" s="5">
+        <v>1623110400</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1623686399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -220,13 +220,20 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,35 +253,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -282,35 +260,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +283,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -341,7 +314,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,9 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,11 +348,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,13 +363,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,175 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,16 +632,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,9 +675,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,22 +699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,32 +728,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,140 +747,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -884,13 +891,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -898,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1236,28 +1246,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1303,10 +1313,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1352,10 +1362,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1409,10 +1419,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1458,10 +1468,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1501,8 +1511,8 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1680,10 +1690,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I9" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
@@ -1705,10 +1715,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I10" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1730,10 +1740,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I11" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1755,10 +1765,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I12" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1779,10 +1789,10 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>1623167999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>1623254399</v>
       </c>
     </row>
@@ -1805,10 +1815,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I14" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
   </sheetData>
@@ -1829,206 +1839,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="13.125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="13.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>15</v>
       </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11">
+      <c r="F2" s="14"/>
+      <c r="G2" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11">
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
         <v>1200</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11">
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>2555555555</v>
       </c>
     </row>
@@ -2050,14 +2060,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2089,17 +2099,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2233,112 +2243,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="7"/>
-    <col min="2" max="2" width="21.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="7"/>
+    <col min="1" max="1" width="10.75" style="8"/>
+    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2352,37 +2362,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2453,17 +2463,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2611,62 +2621,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="7"/>
+    <col min="1" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>99999</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>99999</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>99999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>99999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>99999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>99999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2688,10 +2698,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2753,10 +2763,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>no</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
   </si>
 </sst>
 </file>
@@ -218,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -252,8 +255,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -276,42 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,36 +346,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,16 +360,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,8 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,13 +425,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,163 +503,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +634,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -646,11 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,26 +706,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,37 +731,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,138 +750,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1509,10 +1512,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1690,10 +1693,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I9" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
@@ -1715,10 +1718,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I10" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1740,10 +1743,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I11" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1765,10 +1768,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I12" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1790,10 +1793,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I13" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1820,6 +1823,31 @@
       <c r="I14" s="6">
         <v>1623254399</v>
       </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>3000</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2572214400</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -221,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,8 +262,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +348,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -284,25 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,21 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -336,7 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,55 +403,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,37 +432,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,145 +564,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +641,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,30 +685,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,39 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -731,17 +714,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,140 +757,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -897,13 +904,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -911,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1249,28 +1259,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1316,10 +1326,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1365,10 +1375,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1422,10 +1432,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1471,10 +1481,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1841,11 +1851,11 @@
         <v>50</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1623254399</v>
+      <c r="H15" s="7">
+        <v>1626134400</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2572819200</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -1867,206 +1877,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="13.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>15</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12">
+      <c r="F2" s="15"/>
+      <c r="G2" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <v>1200</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12">
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>2555555555</v>
       </c>
     </row>
@@ -2088,14 +2098,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2127,17 +2137,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2271,112 +2281,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="8"/>
-    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="8"/>
+    <col min="1" max="1" width="10.75" style="9"/>
+    <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2390,37 +2400,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2491,17 +2501,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2649,62 +2659,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="8"/>
+    <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>99999</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>99999</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>99999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>99999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>99999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>99999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2726,10 +2736,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2791,10 +2801,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -220,8 +220,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -252,6 +252,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -268,10 +318,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,24 +349,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,13 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,73 +394,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -422,25 +422,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,109 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -649,37 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,46 +709,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,138 +747,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I14"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1789,11 +1789,11 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1623254399</v>
+      <c r="H13" s="5">
+        <v>1624924800</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1814,11 +1814,11 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="5">
-        <v>1624924800</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1625500799</v>
+      <c r="H14" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -222,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -262,9 +262,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,7 +285,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,38 +308,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -330,14 +323,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,21 +360,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,14 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -425,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +634,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,26 +673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,17 +703,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,32 +731,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,138 +750,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1514,8 +1514,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1841,11 +1841,11 @@
         <v>50</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="5">
-        <v>1625529600</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2572214400</v>
+      <c r="H15" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1623254399</v>
       </c>
       <c r="J15" s="5"/>
     </row>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -219,14 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,66 +264,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,84 +273,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,194 +298,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -640,255 +322,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -907,7 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,76 +357,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1244,21 +640,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1308,24 +704,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1341,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1349,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1358,23 +753,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1390,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1398,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1406,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1415,23 +809,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1447,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1455,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1464,23 +857,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1496,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1504,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1513,22 +905,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
@@ -1536,7 +927,7 @@
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1582,7 +973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1599,7 +990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1616,7 +1007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1633,7 +1024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1650,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1667,7 +1058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1684,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1709,7 +1100,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1734,7 +1125,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1759,7 +1150,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1784,7 +1175,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1809,7 +1200,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1834,7 +1225,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1852,7 +1243,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="7">
-        <v>1626739200</v>
+        <v>1941617584</v>
       </c>
       <c r="I15" s="7">
         <v>2572819200</v>
@@ -1860,22 +1251,21 @@
       <c r="J15" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
@@ -1887,7 +1277,7 @@
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1937,7 +1327,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1961,7 +1351,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1987,7 +1377,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2034,7 +1424,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2057,7 +1447,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2081,24 +1471,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +1498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2121,23 +1510,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2165,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2179,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2193,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2207,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2221,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2235,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2249,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2264,22 +1652,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
@@ -2288,7 +1675,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2322,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2339,7 +1726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2356,7 +1743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2373,7 +1760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2390,118 +1777,117 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2529,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2543,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2557,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2571,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2585,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2599,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2613,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2627,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2642,27 +2028,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2690,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2704,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2719,23 +2104,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2751,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2759,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2767,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2775,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2784,23 +2168,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2816,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2824,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2833,7 +2216,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -224,8 +219,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,9 +263,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,13 +289,129 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +430,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -322,13 +640,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -347,7 +907,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,32 +917,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -640,21 +1244,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="67.5" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -680,7 +1284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,23 +1308,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -728,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -736,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -744,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -753,22 +1358,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -776,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -784,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -792,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -800,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -809,22 +1415,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -840,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -848,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -857,22 +1464,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -880,7 +1488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -888,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -896,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -905,21 +1513,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
@@ -927,7 +1536,7 @@
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -973,7 +1582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -990,7 +1599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1007,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1024,7 +1633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1041,7 +1650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1058,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1075,7 +1684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1094,13 +1703,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I9" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1119,13 +1728,13 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I10" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1144,13 +1753,13 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I11" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1169,13 +1778,13 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I12" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1194,13 +1803,13 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I13" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1225,7 +1834,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1243,7 +1852,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="7">
-        <v>1941617584</v>
+        <v>1626134400</v>
       </c>
       <c r="I15" s="7">
         <v>2572819200</v>
@@ -1251,21 +1860,22 @@
       <c r="J15" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
@@ -1277,7 +1887,7 @@
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="42" customHeight="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1327,7 +1937,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1351,7 +1961,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1377,7 +1987,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1401,7 +2011,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1424,7 +2034,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1447,7 +2057,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1471,23 +2081,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1510,22 +2121,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +2151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1553,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1567,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1581,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1595,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1609,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1623,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1637,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1652,21 +2264,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
@@ -1675,7 +2288,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +2305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1709,7 +2322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1726,7 +2339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1" spans="1:5">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1743,7 +2356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1760,7 +2373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1777,117 +2390,118 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +2515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1915,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1929,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1943,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1957,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1971,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1985,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1999,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2013,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2028,26 +2642,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2075,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2089,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2104,22 +2719,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2135,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2143,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2151,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2159,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2168,22 +2784,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2199,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2207,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2216,7 +2833,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -219,14 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,24 +262,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,129 +273,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,194 +298,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -640,255 +322,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -907,7 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,76 +357,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1244,21 +640,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1308,24 +704,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1341,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1349,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1358,23 +753,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1390,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1398,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1406,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1415,23 +809,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1447,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1455,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1464,23 +857,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1496,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1504,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1513,22 +905,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
@@ -1536,7 +927,7 @@
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1582,7 +973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1599,7 +990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1616,7 +1007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1633,7 +1024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1650,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1667,7 +1058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1684,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1709,7 +1100,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1734,7 +1125,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1759,7 +1150,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1784,7 +1175,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1809,7 +1200,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1834,7 +1225,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1852,7 +1243,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="7">
-        <v>1626134400</v>
+        <v>1941617584</v>
       </c>
       <c r="I15" s="7">
         <v>2572819200</v>
@@ -1860,22 +1251,21 @@
       <c r="J15" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
@@ -1887,7 +1277,7 @@
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1937,7 +1327,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1961,7 +1351,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1987,7 +1377,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2034,7 +1424,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2057,7 +1447,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2081,24 +1471,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +1498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2121,23 +1510,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2165,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2179,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2193,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2207,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2221,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2235,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2249,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2264,22 +1652,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
@@ -2288,7 +1675,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2322,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2339,7 +1726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2356,7 +1743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2373,7 +1760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2390,118 +1777,117 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2529,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2543,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2557,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2571,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2585,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2599,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2613,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2627,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2642,27 +2028,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2690,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2704,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2719,23 +2104,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2751,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2759,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2767,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2775,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2784,23 +2168,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2816,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2824,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2833,7 +2216,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -222,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -262,6 +262,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -275,58 +334,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,17 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,11 +381,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,35 +404,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -432,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,17 +644,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,17 +680,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,41 +738,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,138 +757,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:I15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="7">
-        <v>1626134400</v>
+        <v>1626739200</v>
       </c>
       <c r="I15" s="7">
         <v>2572819200</v>

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,7 +916,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1094,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I9" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1119,10 +1119,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I10" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I11" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1169,10 +1169,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I12" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -237,6 +237,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,6 +245,7 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,12 +253,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,17 +268,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -916,7 +923,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H9" sqref="H9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I9" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1119,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I10" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1144,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I11" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1169,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I12" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1194,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="I13" s="5">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1101,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I9" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I10" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1151,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I11" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I12" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I13" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1101,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I9" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I10" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1151,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I11" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I12" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I13" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1101,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I9" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I10" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1151,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I11" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I12" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I13" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1101,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I9" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I10" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1151,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I11" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I12" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I13" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_boss_yutu_random_1.xlsx
+++ b/config_debug/fish_boss_yutu_random_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1101,10 +1101,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I9" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I10" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1151,10 +1151,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I11" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I12" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I13" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
